--- a/output/fit_clients/fit_round_362.xlsx
+++ b/output/fit_clients/fit_round_362.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2013920953.562078</v>
+        <v>1973929088.286674</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07952865872043949</v>
+        <v>0.07803053705004578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02971868399984098</v>
+        <v>0.0446680903049831</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1006960474.28786</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2221350454.953529</v>
+        <v>2197745893.677198</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1615481437463744</v>
+        <v>0.1835753599326211</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04254622957778115</v>
+        <v>0.03183807444443074</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1110675301.822895</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3793725072.959034</v>
+        <v>3532040854.774318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1111110466519091</v>
+        <v>0.1214214678267309</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02443322859506</v>
+        <v>0.03650821369858771</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1896862536.046709</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3794441957.804966</v>
+        <v>3493964681.823893</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070346284389016</v>
+        <v>0.1011314775809915</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04298122921781464</v>
+        <v>0.03957159912631317</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1897220996.211253</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1997615980.357935</v>
+        <v>1824325808.019697</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09746170743139014</v>
+        <v>0.1067720182268024</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05650671949620699</v>
+        <v>0.04431988633945883</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>998808020.0394115</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2971793869.866464</v>
+        <v>3044778282.385129</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09380131779331312</v>
+        <v>0.07304917672184018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04039304070206327</v>
+        <v>0.03348805558095428</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>113</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1485896902.604953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3832927225.017791</v>
+        <v>3445935620.842049</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2016797198336988</v>
+        <v>0.1563671624141585</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03124288995701489</v>
+        <v>0.02790154290251295</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>115</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1916463755.184582</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2152735510.619976</v>
+        <v>1557807315.165666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1785708555162021</v>
+        <v>0.1774246341001237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0240202020932219</v>
+        <v>0.0229786533828686</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1076367760.745982</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5625529565.265575</v>
+        <v>5027703048.936873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1730735259126244</v>
+        <v>0.1557337813371416</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04465596729364701</v>
+        <v>0.04978564850751632</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>152</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2812764930.36404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2812520340.427545</v>
+        <v>3231948372.623456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1564819167305582</v>
+        <v>0.133766733988952</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03130732687771205</v>
+        <v>0.03779121512210959</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>149</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1406260100.098284</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2514577130.408521</v>
+        <v>2850812933.808867</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1899844805598802</v>
+        <v>0.1841787230015307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04709681795469538</v>
+        <v>0.03933468195283756</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>124</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1257288538.789933</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3940605290.338614</v>
+        <v>3287253206.31713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09790707075244472</v>
+        <v>0.09768125958298128</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02999902485393554</v>
+        <v>0.01981423939168597</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>121</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1970302703.121843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2544278624.689574</v>
+        <v>2524642730.21755</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1609742568665369</v>
+        <v>0.1444664426470498</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03148264105831319</v>
+        <v>0.02796555063632742</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1272139379.792992</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1431884363.340641</v>
+        <v>1722865649.275188</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07349818251866194</v>
+        <v>0.09400679300093076</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03076332172687599</v>
+        <v>0.04217235450858127</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>715942251.7460493</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1755262068.15892</v>
+        <v>2617142923.382486</v>
       </c>
       <c r="F16" t="n">
-        <v>0.115507159077292</v>
+        <v>0.08244550245988083</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04197607202365906</v>
+        <v>0.05107003005543879</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>877631131.434642</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4450156191.990552</v>
+        <v>4101780294.784278</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1185737168809869</v>
+        <v>0.1102324791585012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03230814884850955</v>
+        <v>0.04933179135884126</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2225078108.373339</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3898578981.569353</v>
+        <v>3632660016.572152</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1435182206335401</v>
+        <v>0.1275377070249667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02750129144508842</v>
+        <v>0.03383898896700811</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>119</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1949289456.046035</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1003214735.44673</v>
+        <v>922541567.0409667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1483292594398656</v>
+        <v>0.1326181269589637</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02657879327142295</v>
+        <v>0.01715958579586825</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>501607397.7864717</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2516064502.344149</v>
+        <v>1911325214.903394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1512648622595228</v>
+        <v>0.1285262641747174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02841964127378993</v>
+        <v>0.02870108735494514</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1258032222.568132</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2683719929.288998</v>
+        <v>2453844900.705898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09074190290513577</v>
+        <v>0.08300705425329885</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03089550051139961</v>
+        <v>0.03415068418140055</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1341859935.220855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2697610821.892662</v>
+        <v>3879304150.124728</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0970579703504202</v>
+        <v>0.1051657311536574</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0546071497551296</v>
+        <v>0.04094144807499141</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>100</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1348805490.594715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1109687090.13271</v>
+        <v>1390670340.420529</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1530904587933959</v>
+        <v>0.1283060162116197</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03753612660165596</v>
+        <v>0.03442125939351697</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>554843596.7734307</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3491407602.820154</v>
+        <v>4108827331.030905</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1378167710977335</v>
+        <v>0.09172412449230147</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02551617150372048</v>
+        <v>0.03040537810349508</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1745703803.618777</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1344036114.660754</v>
+        <v>951940814.8670081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1013719491624098</v>
+        <v>0.09159076334115547</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02991774414418644</v>
+        <v>0.02807530517100185</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>672018042.1754078</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1235827043.202341</v>
+        <v>1180772002.981396</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1077977065947572</v>
+        <v>0.1005031776484021</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03793437304539785</v>
+        <v>0.02648490865643371</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>617913551.3850311</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4721330158.809241</v>
+        <v>3479406135.217343</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1280081805644368</v>
+        <v>0.1121037971911366</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02354218109746897</v>
+        <v>0.02547093343877018</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2360665053.722325</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3801296637.041131</v>
+        <v>3185871417.324872</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1041836917424569</v>
+        <v>0.1400177220816761</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03579656692269586</v>
+        <v>0.04099874219032361</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>118</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1900648399.297996</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4588648588.839679</v>
+        <v>3657789395.733176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09805026551266351</v>
+        <v>0.1036144555375802</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04306387872562281</v>
+        <v>0.04094878410834821</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>160</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2294324270.473194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2277958865.218626</v>
+        <v>2385048838.173218</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1401315158909234</v>
+        <v>0.1213722098918089</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03825994654982235</v>
+        <v>0.02824400526087759</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1138979501.710532</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1095088133.86267</v>
+        <v>1437519529.531042</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09827638540483255</v>
+        <v>0.0703299500475494</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0410313913030137</v>
+        <v>0.04597329499942765</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>547544043.0892738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1503899969.427699</v>
+        <v>1515183844.796987</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07383524242215272</v>
+        <v>0.07899132717185536</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03803611278915683</v>
+        <v>0.0275080457183195</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>751950053.8894447</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2734248466.868492</v>
+        <v>1913700842.285913</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1819919445619625</v>
+        <v>0.1277485549598178</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04881494623551844</v>
+        <v>0.05545874315019634</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>108</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1367124251.705839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1144319713.623606</v>
+        <v>1450046426.808303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1100482847854781</v>
+        <v>0.1183100337063495</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02262840159355416</v>
+        <v>0.0265440834448947</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>572159870.9882411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>928586893.5793468</v>
+        <v>1359033383.503932</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09406745541263355</v>
+        <v>0.07242061405533901</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03970008948437496</v>
+        <v>0.03501802992195915</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>464293481.0378597</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2444944453.864527</v>
+        <v>2725960925.954401</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1285045758381312</v>
+        <v>0.1731421602562175</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02423143001537124</v>
+        <v>0.02751488504993998</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1222472253.309959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2007389312.897348</v>
+        <v>1921879733.31363</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1123033017715853</v>
+        <v>0.06999184299620241</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04081685710790528</v>
+        <v>0.03583245593189851</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1003694684.79179</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2001265890.848975</v>
+        <v>1829624144.468351</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08981457064689646</v>
+        <v>0.1173082011647949</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03393281867865335</v>
+        <v>0.02560266456663275</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1000632923.878252</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2045714171.807384</v>
+        <v>2063628019.575203</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1420842094680975</v>
+        <v>0.1373052177516026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02717450707271154</v>
+        <v>0.0204417085975281</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1022857073.497639</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1187348011.873238</v>
+        <v>1490299884.908218</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1338057378856514</v>
+        <v>0.1428071876082435</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03778925192200223</v>
+        <v>0.05315327010196504</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>593674050.4049274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2642195382.48551</v>
+        <v>2085636315.625268</v>
       </c>
       <c r="F41" t="n">
-        <v>0.119749422412519</v>
+        <v>0.1306219390708467</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03107230956298785</v>
+        <v>0.02871005145923849</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>92</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1321097702.578448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3786549424.81715</v>
+        <v>3089538995.712815</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1076722998064016</v>
+        <v>0.1104004771791682</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03412057181907103</v>
+        <v>0.03100535542551042</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>119</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1893274726.985847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1890744521.576389</v>
+        <v>1859310964.916129</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1589443704839563</v>
+        <v>0.1904761344243865</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02363532004883904</v>
+        <v>0.01929312933738661</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>128</v>
-      </c>
-      <c r="J43" t="n">
-        <v>945372370.7358826</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1787314568.381937</v>
+        <v>2354852118.200979</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06726472467519079</v>
+        <v>0.08150033513525051</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02992947268375028</v>
+        <v>0.03406745540346477</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>893657348.1031476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2203834143.083874</v>
+        <v>2012047568.271042</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1423995087609955</v>
+        <v>0.1557797466330234</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04336316259193215</v>
+        <v>0.04266105227300216</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1101917082.966972</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4263833317.961242</v>
+        <v>5342250585.617963</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1744258238202876</v>
+        <v>0.1602058747842665</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03827370693120854</v>
+        <v>0.05011331108770292</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>129</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2131916643.616999</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5188409029.452317</v>
+        <v>3625192783.26019</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1516091364758</v>
+        <v>0.198658991691929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04523218165433556</v>
+        <v>0.04168275714016507</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>97</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2594204581.187543</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3513769156.197293</v>
+        <v>4347859004.348453</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07347542162458572</v>
+        <v>0.07527284831437184</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0382324402061205</v>
+        <v>0.03818327450360586</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>118</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1756884640.739824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1604616883.620904</v>
+        <v>1820864445.159321</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1215258544639295</v>
+        <v>0.1807299114370344</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02761567481312141</v>
+        <v>0.0330976931318297</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>802308457.579149</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3359508204.191222</v>
+        <v>3163799102.415427</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1516130825930394</v>
+        <v>0.1675010079222579</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0458593910594829</v>
+        <v>0.03832138808957342</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>123</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1679754136.35234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1237819601.679266</v>
+        <v>1025579008.018063</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1224785308585319</v>
+        <v>0.1252621939972586</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05189514533824827</v>
+        <v>0.03803739044386943</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>618909846.2771158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3850789428.513324</v>
+        <v>3481545231.815082</v>
       </c>
       <c r="F52" t="n">
-        <v>0.128059687970928</v>
+        <v>0.1322160037095122</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03813305746962391</v>
+        <v>0.0408449719673419</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>149</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1925394779.525717</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3076034262.456538</v>
+        <v>3607612857.828106</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1522419218352603</v>
+        <v>0.2014601821777226</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03560744723691679</v>
+        <v>0.02867063269360794</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1538017158.441554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3017719779.007813</v>
+        <v>3520345600.287396</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1381337871969106</v>
+        <v>0.124359531369979</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04313160305457718</v>
+        <v>0.03392852178788297</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1508859876.446522</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4575589413.129575</v>
+        <v>4115462177.198301</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1742408669913459</v>
+        <v>0.2116554936159055</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02821917728282251</v>
+        <v>0.03207546497115507</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>96</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2287794706.872767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1511719313.868643</v>
+        <v>1203817727.458798</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1049539051882189</v>
+        <v>0.113422519930196</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05657117423487842</v>
+        <v>0.03809360754555135</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>755859697.482839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3705790054.990706</v>
+        <v>2919113280.345337</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1770931255725339</v>
+        <v>0.155341069489259</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02175141960738421</v>
+        <v>0.01977825682518864</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>115</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1852895091.170629</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1737753008.846599</v>
+        <v>1626274704.219987</v>
       </c>
       <c r="F58" t="n">
-        <v>0.162613980591415</v>
+        <v>0.1552282699777826</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02689944357770582</v>
+        <v>0.0395655685030573</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>868876513.8678573</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3551475129.663743</v>
+        <v>5369660190.464751</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08083344849146425</v>
+        <v>0.08541652073510986</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03220453294208696</v>
+        <v>0.04382783827652462</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1775737562.410513</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3379342933.486489</v>
+        <v>3645752187.873009</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1943571599826137</v>
+        <v>0.1972994291660037</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02326774047486923</v>
+        <v>0.02501127254404918</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>112</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1689671576.895344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2507766199.361375</v>
+        <v>3232453516.414201</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1738654396885152</v>
+        <v>0.1408947793322493</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02186030117271244</v>
+        <v>0.02343708254031893</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>125</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1253883126.581484</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1538378124.777607</v>
+        <v>1660420944.939529</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1822708645544172</v>
+        <v>0.1844764224749005</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03753045020957659</v>
+        <v>0.03071667859176461</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>769189051.2340008</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4220402983.055573</v>
+        <v>4971374087.774497</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08828847897893577</v>
+        <v>0.1044441132979856</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03348185388106591</v>
+        <v>0.04143659333233458</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2110201544.088594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3958162106.936499</v>
+        <v>5164814104.082449</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1411362391400876</v>
+        <v>0.1696358095193975</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03297854324909699</v>
+        <v>0.03314211292563891</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>113</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1979081086.394767</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3665050580.888084</v>
+        <v>5346357990.189542</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1271174201591455</v>
+        <v>0.1642800671773654</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02606348863984012</v>
+        <v>0.02015815503108138</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>130</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1832525329.013869</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5015696090.999088</v>
+        <v>5515592625.208781</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1016521743061852</v>
+        <v>0.1266462958563654</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03259097265576516</v>
+        <v>0.04818640952510698</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2507848073.48237</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3486234491.33716</v>
+        <v>3097225668.909598</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08781714211097962</v>
+        <v>0.09829718743639157</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04207059168154343</v>
+        <v>0.04851206029750645</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>116</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1743117222.795558</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6000221022.586013</v>
+        <v>3929403719.919721</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1329716115677373</v>
+        <v>0.1491732271691603</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04940084840661022</v>
+        <v>0.0382974470694972</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>116</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3000110628.314359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1552202171.791993</v>
+        <v>2032802341.817395</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585271903365067</v>
+        <v>0.131207300420601</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0570335266452738</v>
+        <v>0.05270301068932971</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>776101032.9493383</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2949870290.272631</v>
+        <v>3494849744.686487</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08776890837700685</v>
+        <v>0.09507225283964083</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04296490476694287</v>
+        <v>0.0373626567430789</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>103</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1474935118.884036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4295924028.850581</v>
+        <v>4058414354.303377</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1203506360632747</v>
+        <v>0.1520563589887776</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02216577564839438</v>
+        <v>0.03180872512703474</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>132</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2147962067.613439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2113972860.808916</v>
+        <v>1397729988.259952</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09807733610071161</v>
+        <v>0.1077114265807754</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04642631238731342</v>
+        <v>0.03378332797418827</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1056986358.387783</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2534177826.217792</v>
+        <v>2717085639.526357</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07944437011570678</v>
+        <v>0.07736381949145031</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04452359053330508</v>
+        <v>0.03418056033712326</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>137</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1267088951.757527</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3617694144.672976</v>
+        <v>2911826067.354266</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1342918618134269</v>
+        <v>0.1388926021071145</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03361978944060696</v>
+        <v>0.03325060531955092</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>123</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1808847084.308668</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2483032804.544297</v>
+        <v>2220034334.770767</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1548069968534557</v>
+        <v>0.1538513298990726</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02336358356892404</v>
+        <v>0.02846015257285265</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1241516321.246323</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4810029265.28907</v>
+        <v>3865606192.142094</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1051342646677794</v>
+        <v>0.07799214357467858</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03081479782056069</v>
+        <v>0.02428596093511619</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>89</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2405014651.360298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1657984898.955925</v>
+        <v>1711511474.619041</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1325118719588829</v>
+        <v>0.1462036913132909</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02280317183406946</v>
+        <v>0.02193416450424674</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>828992460.4987509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2912303012.753865</v>
+        <v>3864449345.288146</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1040958587724356</v>
+        <v>0.09098241894576936</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04116518098476718</v>
+        <v>0.04525460850824991</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>126</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1456151549.965431</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1346694536.551627</v>
+        <v>1491263616.848466</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1448215733976184</v>
+        <v>0.1615364407080316</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03161535595955373</v>
+        <v>0.03628831468143092</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>673347275.6745586</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5378830672.191887</v>
+        <v>3850355878.251475</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1060123947260178</v>
+        <v>0.1076920279443516</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02440973612422184</v>
+        <v>0.02995884934273691</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2689415404.153961</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4816424733.393172</v>
+        <v>3465818920.560339</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09977981534275207</v>
+        <v>0.09793883558246182</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02109672542899435</v>
+        <v>0.0227547034342567</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>81</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2408212360.235961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4896285596.118325</v>
+        <v>3989644057.29361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2057186899587838</v>
+        <v>0.1924784670527244</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02929406810844299</v>
+        <v>0.01884864839086701</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2448142787.806239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2286188244.427217</v>
+        <v>1577066802.128144</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1487773863935007</v>
+        <v>0.1173435818579798</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0367064130221435</v>
+        <v>0.03281885481569956</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1143094143.155708</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2562809335.189683</v>
+        <v>2266879485.938189</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07567221884544929</v>
+        <v>0.08031620851900398</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03893500249344773</v>
+        <v>0.04034839741870491</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1281404590.196771</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2303252585.696888</v>
+        <v>3119584107.5573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1825946153458616</v>
+        <v>0.1461284480486431</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05012441612482724</v>
+        <v>0.03804533993625656</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>136</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1151626276.08807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2044331234.489971</v>
+        <v>1692663578.473548</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1138997072256184</v>
+        <v>0.1432437491288527</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0184780308296639</v>
+        <v>0.02231357524404655</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1022165651.055489</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1107364212.973723</v>
+        <v>1015324041.621914</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1282326939014921</v>
+        <v>0.1730750901906649</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03757734956670194</v>
+        <v>0.03999274958235518</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>553682138.3582594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2625576171.301502</v>
+        <v>3610370666.772098</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1222376036497422</v>
+        <v>0.1244975953680412</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02643104379379446</v>
+        <v>0.02966123584978176</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>144</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1312788079.115104</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2625131129.006315</v>
+        <v>2309629089.428467</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1053037748026826</v>
+        <v>0.1602057425294182</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02830111240013191</v>
+        <v>0.02747566163290794</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>122</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1312565630.091243</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1312785763.755342</v>
+        <v>1439415030.953193</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1078157719615245</v>
+        <v>0.09086814992551742</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03638871160809751</v>
+        <v>0.04111630879210942</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>656392826.3245234</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1635326074.503747</v>
+        <v>1467350078.296112</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135599200999555</v>
+        <v>0.1541929317853258</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03968211259451664</v>
+        <v>0.03877826335533766</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>817663058.1416323</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2767248195.500294</v>
+        <v>2046345971.217099</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08501614642507471</v>
+        <v>0.08337833484069461</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04459527131396195</v>
+        <v>0.02945130193557481</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>99</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1383624101.880618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4216724162.759151</v>
+        <v>3878526434.533552</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1206153022696796</v>
+        <v>0.0970117451018844</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03465897562100174</v>
+        <v>0.05108405630934802</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2108362067.975007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1989685046.670135</v>
+        <v>1595033252.314456</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1351715890664566</v>
+        <v>0.1372230047293874</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03320995499931429</v>
+        <v>0.02753427218796051</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>994842520.363434</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2559127642.40714</v>
+        <v>2877981931.312576</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1176455840986603</v>
+        <v>0.1069368425777486</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04263207857441558</v>
+        <v>0.03276846193141369</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1279563853.038892</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2283260581.452979</v>
+        <v>1748773811.917135</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09941448942193092</v>
+        <v>0.1111246418977234</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04098841178873604</v>
+        <v>0.0299837550654109</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1141630247.494616</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3894487170.771011</v>
+        <v>3821557518.352346</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1075496436226161</v>
+        <v>0.1133604146552095</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01802488119022689</v>
+        <v>0.02562045579003739</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1947243633.285618</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3725494979.156877</v>
+        <v>2840967812.809865</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1187613916959635</v>
+        <v>0.1266238648977498</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02345165941369851</v>
+        <v>0.02642981111916176</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1862747523.486138</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2754965108.248921</v>
+        <v>3244964643.047655</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0971281000452681</v>
+        <v>0.1460125004227145</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02545968378983228</v>
+        <v>0.02456123745800463</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>113</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1377482522.305444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3904545829.807621</v>
+        <v>3844104978.915811</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1169594459155022</v>
+        <v>0.1621693541162112</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02511360642072802</v>
+        <v>0.02063990052437082</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1952272977.976523</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3193309352.472136</v>
+        <v>3090486092.479403</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1954479217412431</v>
+        <v>0.1431175672004494</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04126086801637871</v>
+        <v>0.05150369141549878</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>148</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1596654790.835574</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_362.xlsx
+++ b/output/fit_clients/fit_round_362.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1973929088.286674</v>
+        <v>2016603541.094928</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07803053705004578</v>
+        <v>0.08399311278638029</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0446680903049831</v>
+        <v>0.03514930422249112</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2197745893.677198</v>
+        <v>2435931726.659871</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1835753599326211</v>
+        <v>0.1698199209249732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03183807444443074</v>
+        <v>0.03319334166578775</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3532040854.774318</v>
+        <v>4410834104.983584</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214214678267309</v>
+        <v>0.1476202675139253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03650821369858771</v>
+        <v>0.02406559850930884</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3493964681.823893</v>
+        <v>3962083772.758759</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1011314775809915</v>
+        <v>0.07611471805476924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03957159912631317</v>
+        <v>0.04620747079738226</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1824325808.019697</v>
+        <v>2328892716.581163</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1067720182268024</v>
+        <v>0.1386559993849102</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04431988633945883</v>
+        <v>0.03912613936085366</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3044778282.385129</v>
+        <v>2654572166.192223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07304917672184018</v>
+        <v>0.06315779938567158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03348805558095428</v>
+        <v>0.04307665525438827</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3445935620.842049</v>
+        <v>2552231884.427397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1563671624141585</v>
+        <v>0.2119253370858117</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02790154290251295</v>
+        <v>0.0286690559988651</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1557807315.165666</v>
+        <v>1499228386.34029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1774246341001237</v>
+        <v>0.1910618663249537</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0229786533828686</v>
+        <v>0.02661102147852205</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5027703048.936873</v>
+        <v>4782838357.317421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1557337813371416</v>
+        <v>0.137234853104715</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04978564850751632</v>
+        <v>0.03367228398829424</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3231948372.623456</v>
+        <v>3606379322.15335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.133766733988952</v>
+        <v>0.1232005512494861</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03779121512210959</v>
+        <v>0.04230869457772554</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2850812933.808867</v>
+        <v>2264968860.855315</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1841787230015307</v>
+        <v>0.1403542225037611</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03933468195283756</v>
+        <v>0.04189320996560764</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3287253206.31713</v>
+        <v>4995912235.337626</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09768125958298128</v>
+        <v>0.07486082396730656</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01981423939168597</v>
+        <v>0.0306084146016461</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2524642730.21755</v>
+        <v>3524151780.164166</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1444664426470498</v>
+        <v>0.1533008512267846</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02796555063632742</v>
+        <v>0.03655983448164381</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1722865649.275188</v>
+        <v>1359863403.382664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09400679300093076</v>
+        <v>0.07982970969174578</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04217235450858127</v>
+        <v>0.03725507631321419</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2617142923.382486</v>
+        <v>2059893127.776905</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08244550245988083</v>
+        <v>0.1111678606957112</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05107003005543879</v>
+        <v>0.04565450170917172</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4101780294.784278</v>
+        <v>3353815359.794592</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1102324791585012</v>
+        <v>0.1581032035874842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04933179135884126</v>
+        <v>0.03608433956639561</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3632660016.572152</v>
+        <v>3342533952.484989</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275377070249667</v>
+        <v>0.1523277655080341</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03383898896700811</v>
+        <v>0.02125192789216532</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>922541567.0409667</v>
+        <v>904712377.5994573</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1326181269589637</v>
+        <v>0.1511026955611832</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01715958579586825</v>
+        <v>0.02619848609531263</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1911325214.903394</v>
+        <v>2016842272.90035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1285262641747174</v>
+        <v>0.1237790592182687</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02870108735494514</v>
+        <v>0.03072668005866885</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2453844900.705898</v>
+        <v>2135406460.04331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08300705425329885</v>
+        <v>0.09250042318990803</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03415068418140055</v>
+        <v>0.03038433616685548</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3879304150.124728</v>
+        <v>3379857037.847937</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1051657311536574</v>
+        <v>0.1272719374247754</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04094144807499141</v>
+        <v>0.0440310029261361</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1390670340.420529</v>
+        <v>1319255951.983297</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1283060162116197</v>
+        <v>0.1334902141081194</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03442125939351697</v>
+        <v>0.03594854779129851</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4108827331.030905</v>
+        <v>3304954089.62955</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09172412449230147</v>
+        <v>0.1304762666121273</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03040537810349508</v>
+        <v>0.02708743427828178</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>951940814.8670081</v>
+        <v>994817868.5178833</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09159076334115547</v>
+        <v>0.09263096802213691</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02807530517100185</v>
+        <v>0.02257860589018506</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1180772002.981396</v>
+        <v>1018659780.755715</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1005031776484021</v>
+        <v>0.09035443285602814</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02648490865643371</v>
+        <v>0.02803774003272707</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3479406135.217343</v>
+        <v>4083462141.775395</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1121037971911366</v>
+        <v>0.1489812277529125</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02547093343877018</v>
+        <v>0.0219015173546489</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3185871417.324872</v>
+        <v>3604930610.750692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1400177220816761</v>
+        <v>0.1126284437876104</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04099874219032361</v>
+        <v>0.04138975159564889</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3657789395.733176</v>
+        <v>5246911734.92676</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1036144555375802</v>
+        <v>0.1012370655377808</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04094878410834821</v>
+        <v>0.04136134327438244</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2385048838.173218</v>
+        <v>1478735698.282599</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1213722098918089</v>
+        <v>0.1160760117777061</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02824400526087759</v>
+        <v>0.04006004862420982</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1437519529.531042</v>
+        <v>953005612.3897332</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0703299500475494</v>
+        <v>0.09456225742325615</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04597329499942765</v>
+        <v>0.05164287297843765</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1515183844.796987</v>
+        <v>1737086560.554714</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07899132717185536</v>
+        <v>0.07915729678276395</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0275080457183195</v>
+        <v>0.03045841309896705</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1913700842.285913</v>
+        <v>2990575871.993687</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1277485549598178</v>
+        <v>0.1356407394686023</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05545874315019634</v>
+        <v>0.05561486830588687</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1450046426.808303</v>
+        <v>1175703574.630602</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1183100337063495</v>
+        <v>0.1173298485148421</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0265440834448947</v>
+        <v>0.02210142669629494</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1359033383.503932</v>
+        <v>1242284730.549749</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07242061405533901</v>
+        <v>0.1103849276234426</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03501802992195915</v>
+        <v>0.03997784728852153</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2725960925.954401</v>
+        <v>2807595989.986613</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1731421602562175</v>
+        <v>0.1636697947592929</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02751488504993998</v>
+        <v>0.01750532618616775</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1921879733.31363</v>
+        <v>2081453708.827419</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06999184299620241</v>
+        <v>0.0726394814038378</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03583245593189851</v>
+        <v>0.02740355878671195</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1829624144.468351</v>
+        <v>1885830088.432462</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1173082011647949</v>
+        <v>0.1135751240937211</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02560266456663275</v>
+        <v>0.03015615166139706</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2063628019.575203</v>
+        <v>1337550773.346638</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1373052177516026</v>
+        <v>0.1665009320574398</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0204417085975281</v>
+        <v>0.02807473863249956</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1490299884.908218</v>
+        <v>1785473297.406941</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1428071876082435</v>
+        <v>0.1414581401076622</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05315327010196504</v>
+        <v>0.04014673794422587</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2085636315.625268</v>
+        <v>2298434106.664119</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1306219390708467</v>
+        <v>0.1607047286460261</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02871005145923849</v>
+        <v>0.04433424870963713</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3089538995.712815</v>
+        <v>2924146700.544502</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1104004771791682</v>
+        <v>0.08794107392778404</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03100535542551042</v>
+        <v>0.03846731172393661</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1859310964.916129</v>
+        <v>2363054173.336428</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1904761344243865</v>
+        <v>0.1834833799234523</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01929312933738661</v>
+        <v>0.01665934362493848</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2354852118.200979</v>
+        <v>1830353674.2713</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08150033513525051</v>
+        <v>0.09004769267498543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03406745540346477</v>
+        <v>0.03149225307508186</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2012047568.271042</v>
+        <v>1909456305.940005</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1557797466330234</v>
+        <v>0.1845595825214432</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04266105227300216</v>
+        <v>0.0403160126023946</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5342250585.617963</v>
+        <v>4272337099.237981</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1602058747842665</v>
+        <v>0.1424388857622287</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05011331108770292</v>
+        <v>0.04165374657959524</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3625192783.26019</v>
+        <v>4848508495.287864</v>
       </c>
       <c r="F47" t="n">
-        <v>0.198658991691929</v>
+        <v>0.1962879782620292</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04168275714016507</v>
+        <v>0.04207383208408753</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4347859004.348453</v>
+        <v>2854896726.405819</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07527284831437184</v>
+        <v>0.0885372704963423</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03818327450360586</v>
+        <v>0.03462859025968466</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1820864445.159321</v>
+        <v>1236038982.19065</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1807299114370344</v>
+        <v>0.132724049558111</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0330976931318297</v>
+        <v>0.02784757015071728</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3163799102.415427</v>
+        <v>2972142379.189144</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1675010079222579</v>
+        <v>0.1337895078058919</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03832138808957342</v>
+        <v>0.04573341258963217</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1025579008.018063</v>
+        <v>1232084883.139322</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1252621939972586</v>
+        <v>0.1848099037370557</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03803739044386943</v>
+        <v>0.04185426261407155</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3481545231.815082</v>
+        <v>3715206990.910134</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1322160037095122</v>
+        <v>0.1021268395046117</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0408449719673419</v>
+        <v>0.04157567705702728</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3607612857.828106</v>
+        <v>3607194085.162483</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2014601821777226</v>
+        <v>0.1858017143947984</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02867063269360794</v>
+        <v>0.0242693765224757</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3520345600.287396</v>
+        <v>3244913290.566609</v>
       </c>
       <c r="F54" t="n">
-        <v>0.124359531369979</v>
+        <v>0.1279505761378824</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03392852178788297</v>
+        <v>0.04911467438295069</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4115462177.198301</v>
+        <v>3871735256.583488</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2116554936159055</v>
+        <v>0.2152543201718808</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03207546497115507</v>
+        <v>0.02548525181494182</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1203817727.458798</v>
+        <v>1510167081.638176</v>
       </c>
       <c r="F56" t="n">
-        <v>0.113422519930196</v>
+        <v>0.1451716953783045</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03809360754555135</v>
+        <v>0.05351683295293994</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2919113280.345337</v>
+        <v>3427127614.214485</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155341069489259</v>
+        <v>0.1787471063290741</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01977825682518864</v>
+        <v>0.01742327176678674</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1626274704.219987</v>
+        <v>1271568884.665517</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1552282699777826</v>
+        <v>0.1973929420792269</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0395655685030573</v>
+        <v>0.0344893846694694</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5369660190.464751</v>
+        <v>3871421506.359705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08541652073510986</v>
+        <v>0.1212554844915268</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04382783827652462</v>
+        <v>0.03089047068499797</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3645752187.873009</v>
+        <v>3365921946.757443</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1972994291660037</v>
+        <v>0.1616906543399527</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02501127254404918</v>
+        <v>0.02787500167098807</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3232453516.414201</v>
+        <v>3022586241.653707</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1408947793322493</v>
+        <v>0.1782565747319982</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02343708254031893</v>
+        <v>0.02708301180807562</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1660420944.939529</v>
+        <v>1708132396.048528</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1844764224749005</v>
+        <v>0.1773569280589172</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03071667859176461</v>
+        <v>0.03980183082973562</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4971374087.774497</v>
+        <v>4220978018.820359</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044441132979856</v>
+        <v>0.09125871510647936</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04143659333233458</v>
+        <v>0.04756395898974346</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5164814104.082449</v>
+        <v>5140926023.64913</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1696358095193975</v>
+        <v>0.1824444230652209</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03314211292563891</v>
+        <v>0.02942472288122171</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5346357990.189542</v>
+        <v>4449964596.451303</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642800671773654</v>
+        <v>0.1463789502520037</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02015815503108138</v>
+        <v>0.03132897574258321</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5515592625.208781</v>
+        <v>4117866861.465565</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1266462958563654</v>
+        <v>0.1535209615572791</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04818640952510698</v>
+        <v>0.03429635390487806</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3097225668.909598</v>
+        <v>2919315363.337451</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09829718743639157</v>
+        <v>0.06758714205471252</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04851206029750645</v>
+        <v>0.05084817921643148</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3929403719.919721</v>
+        <v>5772836206.822911</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1491732271691603</v>
+        <v>0.1221747753727449</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0382974470694972</v>
+        <v>0.03501762811245424</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2032802341.817395</v>
+        <v>2231088039.118515</v>
       </c>
       <c r="F69" t="n">
-        <v>0.131207300420601</v>
+        <v>0.181024555107774</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05270301068932971</v>
+        <v>0.057082631387199</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3494849744.686487</v>
+        <v>3241231745.636575</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09507225283964083</v>
+        <v>0.08102052245249453</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0373626567430789</v>
+        <v>0.03211661374379259</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4058414354.303377</v>
+        <v>4258534287.067233</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1520563589887776</v>
+        <v>0.1577476955939181</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03180872512703474</v>
+        <v>0.02999448467023871</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1397729988.259952</v>
+        <v>1791010039.707846</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1077114265807754</v>
+        <v>0.07741478673834042</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03378332797418827</v>
+        <v>0.05095195844811363</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2717085639.526357</v>
+        <v>2762826095.250882</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07736381949145031</v>
+        <v>0.1090058570162918</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03418056033712326</v>
+        <v>0.04544215101734848</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2911826067.354266</v>
+        <v>3596168397.735154</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1388926021071145</v>
+        <v>0.1346999642093236</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03325060531955092</v>
+        <v>0.02206983425577226</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2220034334.770767</v>
+        <v>2091452681.893135</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1538513298990726</v>
+        <v>0.16520108414183</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02846015257285265</v>
+        <v>0.03417614560204582</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3865606192.142094</v>
+        <v>3443251493.085932</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07799214357467858</v>
+        <v>0.1055456143115391</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02428596093511619</v>
+        <v>0.02875259644348234</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1711511474.619041</v>
+        <v>1511073860.420275</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1462036913132909</v>
+        <v>0.1210491124833428</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02193416450424674</v>
+        <v>0.03082115808864243</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3864449345.288146</v>
+        <v>3516894531.281731</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09098241894576936</v>
+        <v>0.1159696260857067</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04525460850824991</v>
+        <v>0.05255300937220057</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1491263616.848466</v>
+        <v>1253177086.84044</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1615364407080316</v>
+        <v>0.141788340911651</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03628831468143092</v>
+        <v>0.03348682333709777</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3850355878.251475</v>
+        <v>4650894491.636319</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1076920279443516</v>
+        <v>0.08679484698178261</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02995884934273691</v>
+        <v>0.02952126142507708</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3465818920.560339</v>
+        <v>4144873496.981073</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09793883558246182</v>
+        <v>0.09460246427739358</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0227547034342567</v>
+        <v>0.02480093787622445</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3989644057.29361</v>
+        <v>4914557681.359808</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1924784670527244</v>
+        <v>0.161298622021613</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01884864839086701</v>
+        <v>0.02013810699467579</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1577066802.128144</v>
+        <v>1983820965.317578</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1173435818579798</v>
+        <v>0.1189739041909463</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03281885481569956</v>
+        <v>0.03626667847286985</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2266879485.938189</v>
+        <v>2166658603.668506</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08031620851900398</v>
+        <v>0.1136110209689282</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04034839741870491</v>
+        <v>0.05109876864788693</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3119584107.5573</v>
+        <v>3078299922.079129</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1461284480486431</v>
+        <v>0.1212459267022444</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03804533993625656</v>
+        <v>0.0401552006627249</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1692663578.473548</v>
+        <v>2241676500.333663</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1432437491288527</v>
+        <v>0.1512448091294163</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02231357524404655</v>
+        <v>0.02339785534354267</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1015324041.621914</v>
+        <v>1207836893.719162</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1730750901906649</v>
+        <v>0.1735055657414097</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03999274958235518</v>
+        <v>0.03223347786902588</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3610370666.772098</v>
+        <v>3490715778.0185</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1244975953680412</v>
+        <v>0.1648114705798687</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02966123584978176</v>
+        <v>0.02879984119065132</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2309629089.428467</v>
+        <v>2843360641.950848</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1602057425294182</v>
+        <v>0.1232983974443215</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02747566163290794</v>
+        <v>0.02795600639068871</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1439415030.953193</v>
+        <v>1509682244.026653</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09086814992551742</v>
+        <v>0.08752858485281813</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04111630879210942</v>
+        <v>0.04972132188402262</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1467350078.296112</v>
+        <v>1669765021.280136</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1541929317853258</v>
+        <v>0.1293686719461247</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03877826335533766</v>
+        <v>0.05094430944669114</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2046345971.217099</v>
+        <v>2100041742.688029</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08337833484069461</v>
+        <v>0.07834982545476721</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02945130193557481</v>
+        <v>0.03797030295917741</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3878526434.533552</v>
+        <v>3132152903.787164</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0970117451018844</v>
+        <v>0.0920021280791067</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05108405630934802</v>
+        <v>0.04783677637691525</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1595033252.314456</v>
+        <v>2111657593.184159</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1372230047293874</v>
+        <v>0.146568821348419</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02753427218796051</v>
+        <v>0.03338345764474392</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2877981931.312576</v>
+        <v>2701275099.179353</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1069368425777486</v>
+        <v>0.09621285211188051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03276846193141369</v>
+        <v>0.04531087866193708</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1748773811.917135</v>
+        <v>1885947670.842375</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1111246418977234</v>
+        <v>0.08881621241653975</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0299837550654109</v>
+        <v>0.03196577427885204</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3821557518.352346</v>
+        <v>4877592073.452791</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1133604146552095</v>
+        <v>0.1168940708076938</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02562045579003739</v>
+        <v>0.02624002845062337</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2840967812.809865</v>
+        <v>3139010628.589179</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1266238648977498</v>
+        <v>0.09546303436316102</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02642981111916176</v>
+        <v>0.03125547110992169</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3244964643.047655</v>
+        <v>2905321696.263405</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1460125004227145</v>
+        <v>0.1024941256211054</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02456123745800463</v>
+        <v>0.02677998972528356</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3844104978.915811</v>
+        <v>3957387410.358973</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1621693541162112</v>
+        <v>0.1363703315165821</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02063990052437082</v>
+        <v>0.02415658909137191</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3090486092.479403</v>
+        <v>3152132229.981786</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1431175672004494</v>
+        <v>0.1372816242405986</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05150369141549878</v>
+        <v>0.04237840247032094</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_362.xlsx
+++ b/output/fit_clients/fit_round_362.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2016603541.094928</v>
+        <v>1680311148.809101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08399311278638029</v>
+        <v>0.06993403336110605</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03514930422249112</v>
+        <v>0.03330039590399395</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2435931726.659871</v>
+        <v>2466118647.191334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1698199209249732</v>
+        <v>0.1771833768883751</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03319334166578775</v>
+        <v>0.03936927243511707</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4410834104.983584</v>
+        <v>3214805787.051121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1476202675139253</v>
+        <v>0.1031188162224725</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02406559850930884</v>
+        <v>0.02599078596827258</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>187</v>
+      </c>
+      <c r="J4" t="n">
+        <v>361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36.33622401320139</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3962083772.758759</v>
+        <v>3733411800.926899</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07611471805476924</v>
+        <v>0.09317791437616744</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04620747079738226</v>
+        <v>0.05009530845125949</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>145</v>
+      </c>
+      <c r="J5" t="n">
+        <v>362</v>
+      </c>
+      <c r="K5" t="n">
+        <v>66.17712060188086</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2328892716.581163</v>
+        <v>1821614643.018811</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1386559993849102</v>
+        <v>0.1361431273615811</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03912613936085366</v>
+        <v>0.04909749994292287</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2654572166.192223</v>
+        <v>2550038418.917173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06315779938567158</v>
+        <v>0.07561139477984724</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04307665525438827</v>
+        <v>0.04899326655640429</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2552231884.427397</v>
+        <v>2566601716.318416</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2119253370858117</v>
+        <v>0.1794754339435271</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0286690559988651</v>
+        <v>0.03090398975940638</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1499228386.34029</v>
+        <v>1722683186.207552</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1910618663249537</v>
+        <v>0.1824931238056039</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02661102147852205</v>
+        <v>0.02864507517127178</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +785,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4782838357.317421</v>
+        <v>4509720062.879126</v>
       </c>
       <c r="F10" t="n">
-        <v>0.137234853104715</v>
+        <v>0.1400264167650996</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03367228398829424</v>
+        <v>0.04967186528499615</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>302</v>
+      </c>
+      <c r="J10" t="n">
+        <v>362</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3606379322.15335</v>
+        <v>4154123707.741818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1232005512494861</v>
+        <v>0.1828119392117739</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04230869457772554</v>
+        <v>0.03819907501036499</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>151</v>
+      </c>
+      <c r="J11" t="n">
+        <v>362</v>
+      </c>
+      <c r="K11" t="n">
+        <v>69.29563369800162</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2264968860.855315</v>
+        <v>2276618398.927932</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403542225037611</v>
+        <v>0.1735309373545911</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04189320996560764</v>
+        <v>0.05013332206076779</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4995912235.337626</v>
+        <v>4344841839.026943</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07486082396730656</v>
+        <v>0.07671100463490871</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0306084146016461</v>
+        <v>0.02785330902978726</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>188</v>
+      </c>
+      <c r="J13" t="n">
+        <v>361</v>
+      </c>
+      <c r="K13" t="n">
+        <v>60.37970726282227</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3524151780.164166</v>
+        <v>3008753970.862204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1533008512267846</v>
+        <v>0.1511005780205407</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03655983448164381</v>
+        <v>0.02734098813418948</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1359863403.382664</v>
+        <v>1676394143.769408</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07982970969174578</v>
+        <v>0.06744354530104817</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03725507631321419</v>
+        <v>0.04347597215065273</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2059893127.776905</v>
+        <v>2034962766.982494</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1111678606957112</v>
+        <v>0.09898325206549512</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04565450170917172</v>
+        <v>0.04769957261241617</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3353815359.794592</v>
+        <v>5153132420.904121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1581032035874842</v>
+        <v>0.1317958350626113</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03608433956639561</v>
+        <v>0.04618606291237141</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>171</v>
+      </c>
+      <c r="J17" t="n">
+        <v>361</v>
+      </c>
+      <c r="K17" t="n">
+        <v>61.02329269694052</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3342533952.484989</v>
+        <v>3455052516.989198</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1523277655080341</v>
+        <v>0.1843047477737042</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02125192789216532</v>
+        <v>0.02819530947857461</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>362</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>904712377.5994573</v>
+        <v>1147351735.479643</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1511026955611832</v>
+        <v>0.174660392471547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02619848609531263</v>
+        <v>0.02207736471695882</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2016842272.90035</v>
+        <v>1769454864.093716</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1237790592182687</v>
+        <v>0.1329276402476986</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03072668005866885</v>
+        <v>0.02746229851075966</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2135406460.04331</v>
+        <v>2602969550.631197</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09250042318990803</v>
+        <v>0.06841561700748794</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03038433616685548</v>
+        <v>0.03955483536736074</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3379857037.847937</v>
+        <v>3066194952.291304</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1272719374247754</v>
+        <v>0.1004514133957162</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0440310029261361</v>
+        <v>0.03616810009128112</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99</v>
+      </c>
+      <c r="J22" t="n">
+        <v>361</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40.41114421515743</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1319255951.983297</v>
+        <v>1022304341.970786</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1334902141081194</v>
+        <v>0.1444238700352178</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03594854779129851</v>
+        <v>0.03536504758872702</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3304954089.62955</v>
+        <v>3632370084.153008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1304762666121273</v>
+        <v>0.1321865871400381</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02708743427828178</v>
+        <v>0.0310930446475361</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>111</v>
+      </c>
+      <c r="J24" t="n">
+        <v>361</v>
+      </c>
+      <c r="K24" t="n">
+        <v>52.83812252413188</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>994817868.5178833</v>
+        <v>1218831542.803858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09263096802213691</v>
+        <v>0.1181651498346092</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02257860589018506</v>
+        <v>0.02189837754050427</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1018659780.755715</v>
+        <v>1050646545.024751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09035443285602814</v>
+        <v>0.08982674590810051</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02803774003272707</v>
+        <v>0.03677020651001363</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4083462141.775395</v>
+        <v>3439059629.280264</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1489812277529125</v>
+        <v>0.1551870546365708</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0219015173546489</v>
+        <v>0.01886943219735959</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>151</v>
+      </c>
+      <c r="J27" t="n">
+        <v>362</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3604930610.750692</v>
+        <v>3021539807.961301</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1126284437876104</v>
+        <v>0.1328507191979963</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04138975159564889</v>
+        <v>0.03995429257246789</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5246911734.92676</v>
+        <v>3932895976.813809</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1012370655377808</v>
+        <v>0.1353655938347322</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04136134327438244</v>
+        <v>0.04063801974079927</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>319</v>
+      </c>
+      <c r="J29" t="n">
+        <v>361</v>
+      </c>
+      <c r="K29" t="n">
+        <v>57.56201660873779</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1478735698.282599</v>
+        <v>2134133286.114536</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1160760117777061</v>
+        <v>0.1073596841270195</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04006004862420982</v>
+        <v>0.03660447859028451</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>953005612.3897332</v>
+        <v>1257975732.034004</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09456225742325615</v>
+        <v>0.09246113668749084</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05164287297843765</v>
+        <v>0.03431841095327693</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1737086560.554714</v>
+        <v>1897972307.472445</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07915729678276395</v>
+        <v>0.07525703349956013</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03045841309896705</v>
+        <v>0.03756824993059266</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2990575871.993687</v>
+        <v>2833040093.711201</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1356407394686023</v>
+        <v>0.2079067187276838</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05561486830588687</v>
+        <v>0.04826334876917677</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1175703574.630602</v>
+        <v>1058883579.345168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1173298485148421</v>
+        <v>0.1219646039074701</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02210142669629494</v>
+        <v>0.02060158491158972</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1242284730.549749</v>
+        <v>877226098.8926967</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1103849276234426</v>
+        <v>0.07864175975047466</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03997784728852153</v>
+        <v>0.04445958362443673</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2807595989.986613</v>
+        <v>2765963931.062028</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1636697947592929</v>
+        <v>0.1582963481176809</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01750532618616775</v>
+        <v>0.02049785382033249</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2081453708.827419</v>
+        <v>2476485342.684985</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0726394814038378</v>
+        <v>0.08274143780840321</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02740355878671195</v>
+        <v>0.03791472358001948</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1885830088.432462</v>
+        <v>2127259509.146083</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1135751240937211</v>
+        <v>0.08116358398121866</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03015615166139706</v>
+        <v>0.02733654335674974</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1337550773.346638</v>
+        <v>1410364757.628723</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1665009320574398</v>
+        <v>0.1811411911777267</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02807473863249956</v>
+        <v>0.02795512346718797</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1785473297.406941</v>
+        <v>1598465226.779732</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1414581401076622</v>
+        <v>0.1210799294257583</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04014673794422587</v>
+        <v>0.05240163606218703</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2298434106.664119</v>
+        <v>2536264978.985448</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1607047286460261</v>
+        <v>0.160579511844135</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04433424870963713</v>
+        <v>0.04026822269054811</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1917,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2924146700.544502</v>
+        <v>4089452608.781269</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08794107392778404</v>
+        <v>0.1051425443079171</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03846731172393661</v>
+        <v>0.04509472451221529</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>160</v>
+      </c>
+      <c r="J42" t="n">
+        <v>362</v>
+      </c>
+      <c r="K42" t="n">
+        <v>63.04393160462544</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2363054173.336428</v>
+        <v>2586372774.17778</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1834833799234523</v>
+        <v>0.1790094728529354</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01665934362493848</v>
+        <v>0.02589395260688513</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1830353674.2713</v>
+        <v>2331623743.152925</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09004769267498543</v>
+        <v>0.0832885559507794</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03149225307508186</v>
+        <v>0.02581163771403202</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1909456305.940005</v>
+        <v>1825933869.369874</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1845595825214432</v>
+        <v>0.1793017520879145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0403160126023946</v>
+        <v>0.03716843712058562</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2059,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4272337099.237981</v>
+        <v>5276847546.395748</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1424388857622287</v>
+        <v>0.1387810867754971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04165374657959524</v>
+        <v>0.06131275575715513</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>217</v>
+      </c>
+      <c r="J46" t="n">
+        <v>362</v>
+      </c>
+      <c r="K46" t="n">
+        <v>61.10158943050975</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4848508495.287864</v>
+        <v>4263085302.472876</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1962879782620292</v>
+        <v>0.1806776404352165</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04207383208408753</v>
+        <v>0.04515267177976887</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>162</v>
+      </c>
+      <c r="J47" t="n">
+        <v>361</v>
+      </c>
+      <c r="K47" t="n">
+        <v>54.0940929772388</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2854896726.405819</v>
+        <v>4084159369.492016</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0885372704963423</v>
+        <v>0.1022013993484301</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03462859025968466</v>
+        <v>0.02967381960535482</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>184</v>
+      </c>
+      <c r="J48" t="n">
+        <v>362</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1236038982.19065</v>
+        <v>1575172942.779415</v>
       </c>
       <c r="F49" t="n">
-        <v>0.132724049558111</v>
+        <v>0.1792788380437264</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02784757015071728</v>
+        <v>0.03316187768326589</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2972142379.189144</v>
+        <v>3239302194.495355</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1337895078058919</v>
+        <v>0.1288453960573298</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04573341258963217</v>
+        <v>0.04435342867700337</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>120</v>
+      </c>
+      <c r="J50" t="n">
+        <v>360</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1232084883.139322</v>
+        <v>939943491.4371725</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1848099037370557</v>
+        <v>0.1525574464473827</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04185426261407155</v>
+        <v>0.04060811807959325</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3715206990.910134</v>
+        <v>4200330366.292474</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1021268395046117</v>
+        <v>0.1323169093062991</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04157567705702728</v>
+        <v>0.04328613794243173</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>214</v>
+      </c>
+      <c r="J52" t="n">
+        <v>362</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3607194085.162483</v>
+        <v>2915912600.578252</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1858017143947984</v>
+        <v>0.1331915210105677</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0242693765224757</v>
+        <v>0.03377583432520938</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3244913290.566609</v>
+        <v>3274533106.616498</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1279505761378824</v>
+        <v>0.1304318669191545</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04911467438295069</v>
+        <v>0.05289491976619786</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>192</v>
+      </c>
+      <c r="J54" t="n">
+        <v>361</v>
+      </c>
+      <c r="K54" t="n">
+        <v>40.29741717231666</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3871735256.583488</v>
+        <v>4625105759.558309</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2152543201718808</v>
+        <v>0.2181902315100017</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02548525181494182</v>
+        <v>0.02476254300270099</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>173</v>
+      </c>
+      <c r="J55" t="n">
+        <v>362</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1510167081.638176</v>
+        <v>1749996851.866981</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1451716953783045</v>
+        <v>0.1331605312220741</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05351683295293994</v>
+        <v>0.04685892723368527</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3427127614.214485</v>
+        <v>3187093859.978718</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1787471063290741</v>
+        <v>0.1518850542365975</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01742327176678674</v>
+        <v>0.01780451951091979</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>150</v>
+      </c>
+      <c r="J57" t="n">
+        <v>360</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1271568884.665517</v>
+        <v>1655382374.781763</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1973929420792269</v>
+        <v>0.1876411085972176</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0344893846694694</v>
+        <v>0.03085639677258414</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3871421506.359705</v>
+        <v>5334973837.854926</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1212554844915268</v>
+        <v>0.1012577973760684</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03089047068499797</v>
+        <v>0.03691565626899494</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>175</v>
+      </c>
+      <c r="J59" t="n">
+        <v>362</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3365921946.757443</v>
+        <v>3300659808.205957</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1616906543399527</v>
+        <v>0.179836280344981</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02787500167098807</v>
+        <v>0.02875614777366091</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3022586241.653707</v>
+        <v>3406354630.395137</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1782565747319982</v>
+        <v>0.1483663763804966</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02708301180807562</v>
+        <v>0.03255546225312225</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1708132396.048528</v>
+        <v>1444232813.39203</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1773569280589172</v>
+        <v>0.1781795494085818</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03980183082973562</v>
+        <v>0.03440262192668561</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4220978018.820359</v>
+        <v>5278867689.72878</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09125871510647936</v>
+        <v>0.08252499725095497</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04756395898974346</v>
+        <v>0.04262971624026927</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>178</v>
+      </c>
+      <c r="J63" t="n">
+        <v>361</v>
+      </c>
+      <c r="K63" t="n">
+        <v>60.16308613278995</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5140926023.64913</v>
+        <v>3756786737.899612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1824444230652209</v>
+        <v>0.1480137803402138</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02942472288122171</v>
+        <v>0.02156196827428478</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>179</v>
+      </c>
+      <c r="J64" t="n">
+        <v>362</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4449964596.451303</v>
+        <v>5559768115.643365</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1463789502520037</v>
+        <v>0.1067230411755653</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03132897574258321</v>
+        <v>0.02652510588147875</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>276</v>
+      </c>
+      <c r="J65" t="n">
+        <v>361</v>
+      </c>
+      <c r="K65" t="n">
+        <v>59.30668124638186</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4117866861.465565</v>
+        <v>4202667711.848472</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1535209615572791</v>
+        <v>0.1549300078283403</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03429635390487806</v>
+        <v>0.04788565673081947</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>179</v>
+      </c>
+      <c r="J66" t="n">
+        <v>361</v>
+      </c>
+      <c r="K66" t="n">
+        <v>57.11434514369638</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2919315363.337451</v>
+        <v>2623159335.458345</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06758714205471252</v>
+        <v>0.08452539232387549</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05084817921643148</v>
+        <v>0.03854863388614013</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5772836206.822911</v>
+        <v>5064226507.364262</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221747753727449</v>
+        <v>0.1468680784148529</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03501762811245424</v>
+        <v>0.04130803363502421</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>196</v>
+      </c>
+      <c r="J68" t="n">
+        <v>362</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2231088039.118515</v>
+        <v>1726815688.599152</v>
       </c>
       <c r="F69" t="n">
-        <v>0.181024555107774</v>
+        <v>0.1817111836743624</v>
       </c>
       <c r="G69" t="n">
-        <v>0.057082631387199</v>
+        <v>0.05272609797005297</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2911,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3241231745.636575</v>
+        <v>3216120297.417422</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08102052245249453</v>
+        <v>0.06325022786811098</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03211661374379259</v>
+        <v>0.03649386826117814</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="n">
+        <v>46.11704494451438</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4258534287.067233</v>
+        <v>3598549779.057008</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1577476955939181</v>
+        <v>0.1552704008757669</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02999448467023871</v>
+        <v>0.0324496188144039</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>262</v>
+      </c>
+      <c r="J71" t="n">
+        <v>361</v>
+      </c>
+      <c r="K71" t="n">
+        <v>49.4646648054577</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1791010039.707846</v>
+        <v>1685333369.22547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07741478673834042</v>
+        <v>0.07988003204760953</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05095195844811363</v>
+        <v>0.03486032775141045</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2762826095.250882</v>
+        <v>3038018134.672886</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1090058570162918</v>
+        <v>0.07302088415333842</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04544215101734848</v>
+        <v>0.05215029841622338</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3049,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3596168397.735154</v>
+        <v>3024174218.21246</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1346999642093236</v>
+        <v>0.1225332132742232</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02206983425577226</v>
+        <v>0.02783987607913558</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>102</v>
+      </c>
+      <c r="J74" t="n">
+        <v>361</v>
+      </c>
+      <c r="K74" t="n">
+        <v>40.5453576527286</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3092,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2091452681.893135</v>
+        <v>2047538480.027856</v>
       </c>
       <c r="F75" t="n">
-        <v>0.16520108414183</v>
+        <v>0.1091101324755432</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03417614560204582</v>
+        <v>0.02582315476674385</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3443251493.085932</v>
+        <v>4612153943.540101</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1055456143115391</v>
+        <v>0.07894583091563333</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02875259644348234</v>
+        <v>0.02282105553960129</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>171</v>
+      </c>
+      <c r="J76" t="n">
+        <v>362</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1511073860.420275</v>
+        <v>1795862125.991418</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1210491124833428</v>
+        <v>0.1388499665229799</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03082115808864243</v>
+        <v>0.02647001836634412</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3516894531.281731</v>
+        <v>4286954457.427013</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1159696260857067</v>
+        <v>0.1194836805093986</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05255300937220057</v>
+        <v>0.04129354959729175</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>180</v>
+      </c>
+      <c r="J78" t="n">
+        <v>362</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1253177086.84044</v>
+        <v>1833678552.199649</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141788340911651</v>
+        <v>0.151975573411047</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03348682333709777</v>
+        <v>0.03503339213403521</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4650894491.636319</v>
+        <v>5036615731.076766</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08679484698178261</v>
+        <v>0.1087522443562943</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02952126142507708</v>
+        <v>0.0304461627982793</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>177</v>
+      </c>
+      <c r="J80" t="n">
+        <v>361</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.14815172320586</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4144873496.981073</v>
+        <v>4936190004.717862</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09460246427739358</v>
+        <v>0.1018125491930553</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02480093787622445</v>
+        <v>0.03124660581725808</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>167</v>
+      </c>
+      <c r="J81" t="n">
+        <v>362</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4914557681.359808</v>
+        <v>4138325542.718848</v>
       </c>
       <c r="F82" t="n">
-        <v>0.161298622021613</v>
+        <v>0.1870921466560609</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02013810699467579</v>
+        <v>0.02036884969536559</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>254</v>
+      </c>
+      <c r="J82" t="n">
+        <v>362</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1983820965.317578</v>
+        <v>2272789036.905245</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1189739041909463</v>
+        <v>0.113439716311498</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03626667847286985</v>
+        <v>0.04408139672472652</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2166658603.668506</v>
+        <v>2494554085.945761</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1136110209689282</v>
+        <v>0.104021709402642</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05109876864788693</v>
+        <v>0.04698271798112235</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3078299922.079129</v>
+        <v>2699563224.513048</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1212459267022444</v>
+        <v>0.1813946919183836</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0401552006627249</v>
+        <v>0.05108260038105908</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2241676500.333663</v>
+        <v>2161183268.612247</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1512448091294163</v>
+        <v>0.1631905223688918</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02339785534354267</v>
+        <v>0.01697552080175839</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1207836893.719162</v>
+        <v>1405407355.628955</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1735055657414097</v>
+        <v>0.1196724842801997</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03223347786902588</v>
+        <v>0.03361073968082226</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3490715778.0185</v>
+        <v>2274621534.23105</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1648114705798687</v>
+        <v>0.1590552914498203</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02879984119065132</v>
+        <v>0.03075994045357023</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2843360641.950848</v>
+        <v>2355416959.103036</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1232983974443215</v>
+        <v>0.1317125614077751</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02795600639068871</v>
+        <v>0.02912821349184049</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1509682244.026653</v>
+        <v>1891811325.088703</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08752858485281813</v>
+        <v>0.1003635062648712</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04972132188402262</v>
+        <v>0.04345142308927896</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1669765021.280136</v>
+        <v>1966879645.845059</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1293686719461247</v>
+        <v>0.118025505024251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05094430944669114</v>
+        <v>0.05204770987234321</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2100041742.688029</v>
+        <v>2716277207.241091</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07834982545476721</v>
+        <v>0.09569484013811112</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03797030295917741</v>
+        <v>0.03333603372861407</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3132152903.787164</v>
+        <v>3337623912.802084</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0920021280791067</v>
+        <v>0.1246599516074038</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04783677637691525</v>
+        <v>0.0358720881558012</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>169</v>
+      </c>
+      <c r="J93" t="n">
+        <v>360</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2111657593.184159</v>
+        <v>2399139043.791499</v>
       </c>
       <c r="F94" t="n">
-        <v>0.146568821348419</v>
+        <v>0.1436099223438164</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03338345764474392</v>
+        <v>0.03085680365864304</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2701275099.179353</v>
+        <v>2297518204.53897</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09621285211188051</v>
+        <v>0.1213302200208852</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04531087866193708</v>
+        <v>0.05186353010112808</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1885947670.842375</v>
+        <v>2323687114.114121</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08881621241653975</v>
+        <v>0.1066790587466516</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03196577427885204</v>
+        <v>0.02994827702769039</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4877592073.452791</v>
+        <v>4010915711.693841</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1168940708076938</v>
+        <v>0.1298466814989339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02624002845062337</v>
+        <v>0.02517205322055367</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>186</v>
+      </c>
+      <c r="J97" t="n">
+        <v>362</v>
+      </c>
+      <c r="K97" t="n">
+        <v>61.61761807726673</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3139010628.589179</v>
+        <v>3109874815.872187</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09546303436316102</v>
+        <v>0.1246789499003129</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03125547110992169</v>
+        <v>0.02987466451546925</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>89</v>
+      </c>
+      <c r="J98" t="n">
+        <v>360</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2905321696.263405</v>
+        <v>2611590566.668715</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1024941256211054</v>
+        <v>0.1225329528245374</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02677998972528356</v>
+        <v>0.03231045489690573</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3957387410.358973</v>
+        <v>3298589369.890797</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1363703315165821</v>
+        <v>0.1591306011887722</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02415658909137191</v>
+        <v>0.01733586299527587</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>163</v>
+      </c>
+      <c r="J100" t="n">
+        <v>360</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3152132229.981786</v>
+        <v>3446586652.409902</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1372816242405986</v>
+        <v>0.183342139073378</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04237840247032094</v>
+        <v>0.05460590848204156</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
